--- a/try-xlsxIO.xlsx
+++ b/try-xlsxIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cydn\PycharmProjects\fileIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\send_a_message_about_your_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC92E6-E4B6-40EA-9BBC-F8630673C2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433F3186-5648-4ADF-A3D4-3305E6E825D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3877" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="3908" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,19 +34,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>田川1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1367744830@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田川2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianchuan@shanghaitech.edu.cn</t>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x'x'x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxxxxx@xx.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +404,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -433,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -441,10 +437,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>3</v>

--- a/try-xlsxIO.xlsx
+++ b/try-xlsxIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\send_a_message_about_your_score\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13677\Desktop\2020秋学期\send-a-mail-about-you-score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433F3186-5648-4ADF-A3D4-3305E6E825D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="3908" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="3912" windowWidth="16872" windowHeight="10524"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,27 +28,11 @@
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x'x'x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxxxxx@xx.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +86,22 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -400,59 +398,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="17.796875" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{16BDFDE2-09A5-4BF3-85E7-4158C4B2A126}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D7B91696-5F6A-4553-8FF4-9FA08A63425E}"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="A66:A67">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A65">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>